--- a/happyPathTest/employees-basic-report.xlsx
+++ b/happyPathTest/employees-basic-report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\devman-generator\findFilesTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\devman-generator\happyPathTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -69,24 +69,12 @@
     <t>Delivery</t>
   </si>
   <si>
-    <t>L4</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
-    <t>Corporate Services</t>
-  </si>
-  <si>
     <t>Łódź</t>
   </si>
   <si>
@@ -96,27 +84,12 @@
     <t>Employee</t>
   </si>
   <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Delivery Management</t>
-  </si>
-  <si>
-    <t>Project Governance</t>
-  </si>
-  <si>
     <t>Barclays</t>
   </si>
   <si>
     <t>C Banker</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Business Consulting</t>
-  </si>
-  <si>
     <t>Global 1</t>
   </si>
   <si>
@@ -126,37 +99,28 @@
     <t>Client Portal</t>
   </si>
   <si>
-    <t>Dariusz</t>
-  </si>
-  <si>
-    <t>Information Systems</t>
-  </si>
-  <si>
-    <t>.Net Technical Lead</t>
-  </si>
-  <si>
-    <t>Information Systems Analyst</t>
-  </si>
-  <si>
-    <t>Corporate Project Manager &amp; Business Analyst</t>
-  </si>
-  <si>
     <t>L7</t>
   </si>
   <si>
-    <t>Tomasz</t>
-  </si>
-  <si>
-    <t>Jurek</t>
-  </si>
-  <si>
-    <t>Łęcki</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Kaczmarczyk</t>
+    <t>Mentee</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>BestMentor</t>
+  </si>
+  <si>
+    <t>Project Development</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
   </si>
 </sst>
 </file>
@@ -585,7 +549,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -658,46 +622,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2">
         <v>41426</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -705,25 +669,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>31</v>
@@ -732,19 +696,19 @@
         <v>39342</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -752,46 +716,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2">
         <v>39387</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">

--- a/happyPathTest/employees-basic-report.xlsx
+++ b/happyPathTest/employees-basic-report.xlsx
@@ -120,7 +120,7 @@
     <t>Java</t>
   </si>
   <si>
-    <t>JavaScript</t>
+    <t>L4</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -681,10 +681,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
